--- a/OnBoard/output/trust/bio/Bio_Trust_4.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_4.xlsx
@@ -7596,7 +7596,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7690,7 +7690,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7784,7 +7784,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7878,7 +7878,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7925,7 +7925,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7977,7 +7977,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8128,7 +8128,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8222,7 +8222,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8269,7 +8269,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8363,7 +8363,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8410,7 +8410,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8457,7 +8457,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8504,7 +8504,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8598,7 +8598,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8692,7 +8692,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8744,7 +8744,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8796,7 +8796,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
